--- a/data/trans_bre/POLIPATOLOGIA_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_5-Edad-trans_bre.xlsx
@@ -661,13 +661,13 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>-0.4290002229505481</v>
+        <v>-0.4288477656569053</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.1786900699822969</v>
+        <v>-0.2068543225418653</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -683,13 +683,13 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.7060205057289548</v>
+        <v>0.7005966762541025</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.210951204468323</v>
+        <v>1.20943420357578</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.670901181491264</v>
+        <v>4.593006791527871</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7961858632027962</v>
+        <v>0.6740797730096296</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.279461287139505</v>
+        <v>0.2751702638679622</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4179748939834935</v>
+        <v>0.4266561706083118</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7512689116245242</v>
+        <v>0.5358481808107366</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.0139220210759574</v>
+        <v>-0.163364131453111</v>
       </c>
     </row>
     <row r="9">
@@ -768,16 +768,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.126255424456698</v>
+        <v>3.034677791077469</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.247826144819224</v>
+        <v>2.430963384812924</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.250205030749698</v>
+        <v>2.151580348501585</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.079025829117549</v>
+        <v>3.997279282304545</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -805,7 +805,7 @@
         <v>2.003020024036129</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.729762734451573</v>
+        <v>1.729762734451572</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.523657986438832</v>
@@ -817,7 +817,7 @@
         <v>5.442858777724374</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5688695562493278</v>
+        <v>0.5688695562493272</v>
       </c>
     </row>
     <row r="11">
@@ -828,28 +828,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06886818683584227</v>
+        <v>-0.1954923329428744</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.417258429293698</v>
+        <v>1.510157973223694</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8391874540754624</v>
+        <v>0.8614549572600192</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.2597492013273202</v>
+        <v>-0.3855238204111954</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.09587565708500062</v>
+        <v>-0.2972889856842134</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.053191813461354</v>
+        <v>0.9762900235166877</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1437146435607765</v>
+        <v>0.1879250510040185</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1114350223117394</v>
+        <v>-0.1120485662890003</v>
       </c>
     </row>
     <row r="12">
@@ -860,26 +860,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.566862125896564</v>
+        <v>2.481634054935668</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.314246832046275</v>
+        <v>4.276683135350829</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.397727207803616</v>
+        <v>3.334649043291814</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.943522854619325</v>
+        <v>3.873712710358582</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>7.205170510028365</v>
+        <v>6.891456162313318</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>28.24438718164943</v>
+        <v>25.52772494065091</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.776350439632216</v>
+        <v>1.851017647082829</v>
       </c>
     </row>
     <row r="13">
@@ -926,28 +926,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8967500468724099</v>
+        <v>0.686416233594288</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.251630913099037</v>
+        <v>2.150799828595974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.003880278437957</v>
+        <v>2.029982123967938</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.73402970162868</v>
+        <v>3.45403904280432</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2040710255485679</v>
+        <v>0.1368953343485421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5935716876961582</v>
+        <v>0.6009542236186071</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5362132802373761</v>
+        <v>0.5297757058691674</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4509614483639848</v>
+        <v>0.4106061333864927</v>
       </c>
     </row>
     <row r="15">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.836096365479072</v>
+        <v>5.458783661457876</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.206068849711716</v>
+        <v>7.202783800271943</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.032911219934071</v>
+        <v>6.864238808744894</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.171931511640388</v>
+        <v>9.016365976700447</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.860951215805513</v>
+        <v>4.876834687432427</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6.361584853146379</v>
+        <v>5.154335237750335</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.070973283132032</v>
+        <v>4.217721933534058</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.839428920067886</v>
+        <v>1.788247959664873</v>
       </c>
     </row>
     <row r="16">
@@ -1003,7 +1003,7 @@
         <v>10.58758236750888</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.147858641903632</v>
+        <v>8.147858641903634</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.674700930917421</v>
@@ -1015,7 +1015,7 @@
         <v>2.03681454477286</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.7475941884787564</v>
+        <v>0.7475941884787567</v>
       </c>
     </row>
     <row r="17">
@@ -1026,28 +1026,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03632928459909762</v>
+        <v>0.3196401681543982</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.585376937570477</v>
+        <v>7.737836125798301</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.436825003324962</v>
+        <v>6.328717424110426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.675224216002325</v>
+        <v>4.431932804514666</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.007304129512047208</v>
+        <v>0.02158071560575199</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.368269258405639</v>
+        <v>1.270779535782833</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9029522681783603</v>
+        <v>0.8903789901128871</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.352195935354969</v>
+        <v>0.3525466872537804</v>
       </c>
     </row>
     <row r="18">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.714452127137133</v>
+        <v>7.874067280092426</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.31632614919926</v>
+        <v>15.92965512630384</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.46460091232815</v>
+        <v>14.69123422958994</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.81523046845446</v>
+        <v>11.45774046926857</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.71495504905284</v>
+        <v>1.761942805898682</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.183865757117798</v>
+        <v>5.456918083016904</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.108265002765066</v>
+        <v>4.347917372591526</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.270798249374521</v>
+        <v>1.239100390494728</v>
       </c>
     </row>
     <row r="19">
@@ -1126,28 +1126,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.72319081270376</v>
+        <v>-0.4040138493244239</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07524657708881272</v>
+        <v>-0.291147537677176</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9.592637709327558</v>
+        <v>9.330348358765942</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10.97766673473546</v>
+        <v>10.90559582354845</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.06080083578376062</v>
+        <v>-0.04086281121224057</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.016845105639447</v>
+        <v>-0.02310651073298763</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8210619446384722</v>
+        <v>0.8175626476879366</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.6586554710622362</v>
+        <v>0.6605478995921356</v>
       </c>
     </row>
     <row r="21">
@@ -1158,28 +1158,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.370393645817005</v>
+        <v>10.30882108343559</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.87583560595055</v>
+        <v>12.03768030569445</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20.0947111155939</v>
+        <v>20.62795905735985</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19.07348343157778</v>
+        <v>19.48736772487091</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9717366625876366</v>
+        <v>1.069044361351003</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.05444361289238</v>
+        <v>1.083958158777036</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>3.074738677256739</v>
+        <v>3.103590285009407</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.552747039543021</v>
+        <v>1.615574184769988</v>
       </c>
     </row>
     <row r="22">
@@ -1215,7 +1215,7 @@
         <v>0.5251799191647272</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4404995091380376</v>
+        <v>0.4404995091380374</v>
       </c>
     </row>
     <row r="23">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.709904149551569</v>
+        <v>-0.7143129920166985</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.083359015219521</v>
+        <v>8.016683685619638</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.627665024268039</v>
+        <v>2.67150910507551</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.956237078012503</v>
+        <v>9.488056196450378</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.04353926361017998</v>
+        <v>-0.03827814185285072</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2846069977335411</v>
+        <v>0.3254027156394453</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1234368714656366</v>
+        <v>0.1222505705342825</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2448848620335133</v>
+        <v>0.2566228993870703</v>
       </c>
     </row>
     <row r="24">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.73995810976981</v>
+        <v>12.19886655623705</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>22.07530681881792</v>
+        <v>22.31388483558154</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.79376853562199</v>
+        <v>16.43014324488714</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20.22612812490939</v>
+        <v>20.08267367039715</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9887499241245978</v>
+        <v>0.9124130186868336</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.358371926040898</v>
+        <v>1.371039767795382</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.107392117588676</v>
+        <v>1.099716076304641</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6869601509453062</v>
+        <v>0.6907928638362724</v>
       </c>
     </row>
     <row r="25">
@@ -1303,7 +1303,7 @@
         <v>6.275004588448127</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7.991848614998409</v>
+        <v>7.991848614998408</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9641593221157291</v>
@@ -1326,28 +1326,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.226045848534534</v>
+        <v>2.229812890146393</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.967786322988085</v>
+        <v>4.9340804745834</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5.083972917731493</v>
+        <v>5.136482302466725</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.69440996245613</v>
+        <v>6.682365383120424</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5718901328684384</v>
+        <v>0.5605937206772432</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.135502440991153</v>
+        <v>1.144483645483919</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.271127702688052</v>
+        <v>1.287140664238448</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.7375879176148</v>
+        <v>0.7416305367502581</v>
       </c>
     </row>
     <row r="27">
@@ -1358,28 +1358,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.375695507797387</v>
+        <v>4.375020767160207</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.310898388948668</v>
+        <v>7.411583699398007</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.496051168888139</v>
+        <v>7.609044284354104</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9.290753102411422</v>
+        <v>9.271211430852906</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.491217087283548</v>
+        <v>1.473321049961859</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.195769156551957</v>
+        <v>2.242582598237616</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.511875072759768</v>
+        <v>2.48907258703871</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.199072505519556</v>
+        <v>1.198796255597829</v>
       </c>
     </row>
     <row r="28">
